--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_214.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_214.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(118.4, 122.36)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.15, 7.605)]</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.215311004784689</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_20</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09743589743589744</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj'], ['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.387324, 27.452358), (3.744784, 6.774988)]</t>
+          <t>[['Eb', 'F:min', 'Bb:7', 'Eb'], ['F:min', 'Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44), (13.56, 16.28)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:21.080000', '0:00:27.200000'), ('0:00:05.780000', '0:00:12.460000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:06.260000', '0:00:12.340000'), ('0:00:07.120000', '0:00:14.120000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2266666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'E']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(54.26, 60.12)]</t>
+          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.769931, 26.946439)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:03:44.260000', '0:03:55.060000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98)]</t>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E']]</t>
-        </is>
+          <t>jaah_23</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.196875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:maj']]</t>
+          <t>[['Bb', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.0, 5.0)]</t>
+          <t>[['D:maj/F#', 'D:maj/A', 'A:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(49.34, 61.68)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.250000', '0:00:22.530000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:04:02.060000', '0:04:09.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1901960784313725</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(117.34, 145.84)]</t>
+          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(146.52, 179.42)]</t>
+          <t>[('0:01:20.022335', '0:01:23.702698')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:56.360000', '0:01:00.920000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1041666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>jaah_67</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05274725274725275</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['G:min7', 'C:7', 'F', 'C:7']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.701519, 23.528185)]</t>
+          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:22.680000', '0:00:27')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:13.300000', '0:01:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.48, 26.3), (14.78, 20.48), (21.9, 27.82)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(75.72, 86.06), (23.6, 31.26), (0.54, 7.84)]</t>
+          <t>[('0:01:35.260000', '0:01:53.640000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:32.520000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.84, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1595238095238095</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.24, 46.47)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(6.88, 17.05)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj', 'D:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.639639, 53.885807)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.58, 14.88)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(124.3, 129.24), (1.0, 5.36)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1334816462736374</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Ab:maj', 'Bb:7', 'Eb:7', 'Ab:maj']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(126.605, 130.738)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(90.31, 92.61)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(25.62, 33.76), (47.68, 51.98)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.76, 32.42), (13.98, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1040540540540541</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'C', 'G']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.611451, 17.670317)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(34.169705, 38.767256)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1182170542635659</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(59.508331, 64.685555)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(32.879478, 37.291269)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
